--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635"/>
+    <workbookView windowWidth="20055" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="imx6_cpu_board" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -367,6 +367,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,32 +399,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,8 +429,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,16 +490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,21 +507,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -523,13 +523,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,144 +698,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,17 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,6 +931,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -952,22 +957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,145 +994,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="$A54:$XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2098,7 +2098,9 @@
         <v>74</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="12">
+        <v>744042001</v>
+      </c>
     </row>
     <row r="36" ht="27" spans="1:6">
       <c r="A36" s="8"/>

--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20055" windowHeight="10755"/>
+    <workbookView xWindow="9630" windowWidth="12900" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="imx6_cpu_board" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>IMX6Q-CORE-T1-R1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>电容</t>
   </si>
   <si>
-    <t>18pF/16V</t>
+    <t>18pF/50V</t>
   </si>
   <si>
     <t>C117, C118, C119, C120</t>
@@ -49,12 +49,18 @@
     <t>0402</t>
   </si>
   <si>
-    <t>0.1uF/10V</t>
+    <t>C0G</t>
+  </si>
+  <si>
+    <t>0.1uF/50V</t>
   </si>
   <si>
     <t>C8, C9, C10, C12, C18, C24, C27, C30, C32, C35, C37, C112, C130, C194, C195, C196, C197, C198, C199</t>
   </si>
   <si>
+    <t>X7R</t>
+  </si>
+  <si>
     <t>0.22uF/6.3V</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>0201</t>
   </si>
   <si>
+    <t>X7S</t>
+  </si>
+  <si>
     <t>0.22uF/10V</t>
   </si>
   <si>
@@ -76,7 +85,7 @@
     <t>C11</t>
   </si>
   <si>
-    <t>0.47uF/10V</t>
+    <t>0.47uF/50V</t>
   </si>
   <si>
     <t>C4</t>
@@ -85,13 +94,13 @@
     <t>0603</t>
   </si>
   <si>
-    <t>1uF/6.3V</t>
+    <t>1uF/10V</t>
   </si>
   <si>
     <t>C108</t>
   </si>
   <si>
-    <t>1uF/10V</t>
+    <t>1uF/25V</t>
   </si>
   <si>
     <t>C1, C2, C5, C7</t>
@@ -103,7 +112,7 @@
     <t>C6, C192, C193</t>
   </si>
   <si>
-    <t>4.7uF/10V</t>
+    <t>4.7uF/25V</t>
   </si>
   <si>
     <t>C13, C19, C25, C26, C31, C36</t>
@@ -112,7 +121,7 @@
     <t>0805</t>
   </si>
   <si>
-    <t>10uF/6.3V</t>
+    <t>10uF/10V</t>
   </si>
   <si>
     <t>C89, C101, C114</t>
@@ -122,6 +131,9 @@
   </si>
   <si>
     <t>C42, C49, C54, C59, C66, C75, C76, C77, C83, C190, C191</t>
+  </si>
+  <si>
+    <t>X5R</t>
   </si>
   <si>
     <t>22uF/6.3V</t>
@@ -348,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -385,43 +397,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -429,7 +404,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -438,37 +413,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +435,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -500,19 +513,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -523,43 +535,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,19 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,115 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,8 +904,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,9 +951,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,56 +992,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,10 +1006,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,133 +1018,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,8 +1541,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1585,203 +1597,229 @@
       <c r="E3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="54" spans="1:6">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9">
         <v>19</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="189" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9">
         <v>76</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" ht="135" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9">
         <v>49</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9">
         <v>3</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9">
         <v>3</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" ht="27" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9">
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" ht="54" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9">
         <v>21</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -1790,10 +1828,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -1806,7 +1844,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>10</v>
@@ -1822,23 +1860,23 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14"/>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>10</v>
@@ -1848,13 +1886,13 @@
     <row r="20" spans="1:6">
       <c r="A20" s="14"/>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>10</v>
@@ -1864,13 +1902,13 @@
     <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="16">
         <v>5</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>10</v>
@@ -1906,16 +1944,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>10</v>
@@ -1925,13 +1963,13 @@
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>10</v>
@@ -1941,13 +1979,13 @@
     <row r="26" ht="67.5" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" s="9">
         <v>27</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>10</v>
@@ -1957,13 +1995,13 @@
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>10</v>
@@ -1973,13 +2011,13 @@
     <row r="28" ht="108" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C28" s="9">
         <v>39</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>10</v>
@@ -1989,13 +2027,13 @@
     <row r="29" spans="1:6">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>10</v>
@@ -2005,13 +2043,13 @@
     <row r="30" spans="1:6">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>10</v>
@@ -2021,13 +2059,13 @@
     <row r="31" spans="1:6">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="9">
         <v>2</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>10</v>
@@ -2037,13 +2075,13 @@
     <row r="32" spans="1:6">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>10</v>
@@ -2052,50 +2090,50 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="12"/>
     </row>
     <row r="35" ht="40.5" spans="1:6">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C35" s="9">
         <v>4</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="12">
@@ -2105,31 +2143,31 @@
     <row r="36" ht="27" spans="1:6">
       <c r="A36" s="8"/>
       <c r="B36" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C36" s="9">
         <v>1</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F36" s="12"/>
     </row>
     <row r="37" ht="27" spans="1:6">
       <c r="A37" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
@@ -2137,163 +2175,163 @@
     <row r="38" ht="27" spans="1:6">
       <c r="A38" s="8"/>
       <c r="B38" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C43" s="9">
         <v>4</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C44" s="9">
         <v>1</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C45" s="9">
         <v>4</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C47" s="9">
         <v>4</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6">

--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9630" windowWidth="12900" windowHeight="13215"/>
+    <workbookView windowWidth="28695" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="imx6_cpu_board" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
     <t>BGA96</t>
   </si>
   <si>
-    <t>SDIN5C2-8G</t>
+    <t>MTFC8GAKAJCN-4M IT</t>
   </si>
   <si>
     <t>U11</t>
@@ -361,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -383,13 +383,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -397,21 +390,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -419,17 +411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,9 +427,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,7 +473,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,8 +494,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,16 +510,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,23 +904,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,6 +936,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -974,30 +998,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1006,10 +1006,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,133 +1018,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,6 +1277,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1532,17 +1537,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/器件清单.xlsx
+++ b/器件清单.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13635" tabRatio="500"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="vt18_cpu_board" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
-    <t>DCETVT18CPU-REV.0</t>
+    <t>DCETVT18CPU-REV.1</t>
   </si>
   <si>
     <t>种类</t>
@@ -38,22 +37,22 @@
     <t>备注</t>
   </si>
   <si>
+    <t>18pF/50V</t>
+  </si>
+  <si>
+    <t>C117, C118, C119, C120</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
     <t>电容</t>
   </si>
   <si>
-    <t>18pF/50V</t>
-  </si>
-  <si>
-    <t>C117, C118, C119, C120</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>0.1uF/50V</t>
-  </si>
-  <si>
-    <t>C8, C9, C10, C12, C18, C24, C27, C30, C32, C35, C37, C112, C130, C194, C195</t>
+    <t>0.1uF/10V</t>
+  </si>
+  <si>
+    <t>C8, C9, C10, C12, C18, C24, C27, C30, C32, C35, C37, C112, C130, C193, C194, C195, C196, C197, C198</t>
   </si>
   <si>
     <t>0.22uF/6.3V</t>
@@ -65,9 +64,6 @@
     <t>0201</t>
   </si>
   <si>
-    <t>0.22uF/10V</t>
-  </si>
-  <si>
     <t>C3, C111, C121, C126, C127, C128, C129, C131, C132, C133, C134, C135, C136, C137, C138, C139, C140, C141, C142, C143, C146, C147, C148, C149, C150, C151, C152, C153, C154, C155, C156, C157, C158, C159, C160, C161, C162, C163, C164, C166, C167, C168, C169, C170, C171, C178, C179, C180, C181</t>
   </si>
   <si>
@@ -95,7 +91,7 @@
     <t>4.7uF/6.3V</t>
   </si>
   <si>
-    <t>C6, C192</t>
+    <t>C6, C108, C192</t>
   </si>
   <si>
     <t>4.7uF/25V</t>
@@ -134,7 +130,7 @@
     <t>SH1, SH2, SH3, SH4</t>
   </si>
   <si>
-    <t>R2, R29, R48, R59, R60</t>
+    <t>R2, R29, R49, R50, R58, R59, R60</t>
   </si>
   <si>
     <t>R10</t>
@@ -191,7 +187,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R8, R11, R13, R21, R22, R23, R37, R38, R42, R43, R68, R70, R72, R74, R76, R78, R80, R83, R85, R87, R89, R91, R93, R96, R98, R100, R102, R103, R104, R105, R107, R108, R109, R110, R111, R112, R113, R114, R115, R116, R117, R118</t>
+    <t>R8, R9, R11, R13, R21, R22, R23, R37, R38, R42, R68, R70, R72, R74, R76, R78, R80, R83, R85, R87, R89, R91, R93, R96, R98, R100, R102, R103, R104, R105, R107, R108, R109, R110, R111, R112, R113, R114, R115, R116, R117, R118</t>
   </si>
   <si>
     <t>47K</t>
@@ -282,7 +278,20 @@
     <t>QFN-56</t>
   </si>
   <si>
-    <t>MCIMX6S5EVM10AD</t>
+    <t>GD9E4M00PNF</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>FBGA153</t>
+  </si>
+  <si>
+    <t>eMMC
+供应商联系方式，找唐元伦要</t>
+  </si>
+  <si>
+    <t>MCIMX6Q5EYM10AD</t>
   </si>
   <si>
     <t>U3</t>
@@ -298,15 +307,6 @@
   </si>
   <si>
     <t>BGA96</t>
-  </si>
-  <si>
-    <t>MT29F16G08ABABAWP-IT</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>TSOP48</t>
   </si>
   <si>
     <t>NC7SP126P5X</t>
@@ -347,17 +347,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -390,27 +391,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,18 +404,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,16 +427,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,8 +442,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,9 +452,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,19 +481,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,12 +497,27 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -539,187 +528,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,6 +821,45 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -868,56 +896,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,37 +925,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +942,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,138 +998,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,88 +1147,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1551,21 +1553,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.4" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.2583333333333" style="3" customWidth="1"/>
-    <col min="7" max="1025" width="9" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="24.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="19.5" spans="1:6">
@@ -1599,41 +1600,41 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:6">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" ht="54" spans="1:6">
-      <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
+      <c r="E4" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" ht="229.5" spans="1:6">
-      <c r="A5" s="11"/>
+    <row r="5" ht="256.5" spans="1:6">
+      <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1643,742 +1644,1000 @@
       <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" ht="187.5" customHeight="1" spans="1:6">
-      <c r="A6" s="11"/>
+    <row r="6" ht="175.5" spans="1:6">
+      <c r="A6" s="16"/>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="13">
         <v>49</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="13">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" ht="27" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="13">
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="13">
         <v>3</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" ht="41.25" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="40.5" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="19">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="1:6">
+      <c r="A15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="13">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="21" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" ht="27" spans="1:6">
+      <c r="A17" s="16"/>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16"/>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16"/>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="D20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13">
         <v>5</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="67.5" spans="1:6">
-      <c r="A18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="13">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="13">
-        <v>4</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="13">
-        <v>5</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
       <c r="D21" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" ht="27" spans="1:6">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="13">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="16"/>
+      <c r="B24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" ht="81" spans="1:6">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="13">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" ht="148.5" spans="1:6">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="13">
         <v>42</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="13">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="13">
-        <v>5</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="D27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" ht="27" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="13">
-        <v>6</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="D28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" ht="67.5" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="13">
-        <v>21</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="D29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16"/>
+      <c r="B30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" ht="135" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="13">
-        <v>42</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>58</v>
+      <c r="D30" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11"/>
+      <c r="A32" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="B32" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C33" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
-        <v>65</v>
+    <row r="34" ht="40.5" spans="1:6">
+      <c r="A34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" ht="27" spans="1:6">
-      <c r="A35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>68</v>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C35" s="13">
         <v>1</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
-        <v>70</v>
+    <row r="36" ht="27" spans="1:6">
+      <c r="A36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C36" s="13">
         <v>1</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>72</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E36" s="12"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" ht="40.5" spans="1:6">
-      <c r="A37" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="13">
+    <row r="37" ht="27.75" spans="1:6">
+      <c r="A37" s="17"/>
+      <c r="B37" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" ht="27" spans="1:6">
-      <c r="A39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>80</v>
+      <c r="E38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C39" s="13">
         <v>1</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" ht="27" spans="1:6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="25" t="s">
-        <v>82</v>
+    <row r="40" ht="40.5" spans="1:6">
+      <c r="A40" s="16"/>
+      <c r="B40" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="13">
         <v>1</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="13">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" ht="14.25" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43" s="16"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
-      <c r="A44" s="21" t="s">
+      <c r="B43" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="13">
         <v>1</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>6</v>
-      </c>
+      <c r="D43" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="16"/>
+      <c r="B44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="A45" s="16"/>
       <c r="B45" s="12" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C45" s="13">
         <v>1</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>88</v>
+    <row r="46" ht="40.5" spans="1:6">
+      <c r="A46" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="C46" s="13">
         <v>1</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>90</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E46" s="12"/>
       <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="11"/>
-      <c r="B47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="13">
-        <v>2</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="11"/>
-      <c r="B48" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="11"/>
-      <c r="B49" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11"/>
-      <c r="B50" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="15"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="11"/>
-      <c r="B51" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" ht="41.25" spans="1:6">
-      <c r="A52" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="18">
-        <v>1</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="20"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="15"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:6">
+      <c r="A84" s="24"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A16:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A45"/>
   </mergeCells>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>